--- a/inst/app/data/params_England.xlsx
+++ b/inst/app/data/params_England.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thomas.jemmett\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thomas.jemmett\dev\R\active_projects\723_mh_covid_surge_modelling\inst\app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79408520-6CA3-450F-B953-1505F836ED49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C02DF2F-0395-468A-8683-D89EB8A4E420}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="curves" sheetId="1" r:id="rId1"/>
@@ -742,7 +742,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -11355,8 +11355,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -11680,7 +11680,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" s="11">
         <v>3.9013938706628863</v>
@@ -11700,7 +11700,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" s="11">
         <v>2.376591269256759</v>
@@ -11720,7 +11720,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" s="11">
         <v>2.376591269256759</v>
@@ -11740,7 +11740,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" s="11">
         <v>3.9013938706628863</v>
@@ -11980,7 +11980,7 @@
         <v>1</v>
       </c>
       <c r="D31" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" s="11">
         <v>1</v>
